--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H2">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I2">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J2">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>35.47947410977</v>
+        <v>24.76030998987556</v>
       </c>
       <c r="R2">
-        <v>319.31526698793</v>
+        <v>222.84278990888</v>
       </c>
       <c r="S2">
-        <v>0.05280108485779797</v>
+        <v>0.04138260914639423</v>
       </c>
       <c r="T2">
-        <v>0.05777581189753398</v>
+        <v>0.04545370848214465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H3">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I3">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J3">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
-        <v>30.12150720187201</v>
+        <v>28.23212314358933</v>
       </c>
       <c r="R3">
-        <v>271.093564816848</v>
+        <v>254.089108292304</v>
       </c>
       <c r="S3">
-        <v>0.04482727824234727</v>
+        <v>0.0471851490511125</v>
       </c>
       <c r="T3">
-        <v>0.04905074209333746</v>
+        <v>0.05182708519099474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H4">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I4">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J4">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>16.307359266174</v>
+        <v>19.25346648606222</v>
       </c>
       <c r="R4">
-        <v>146.766233395566</v>
+        <v>173.28119837456</v>
       </c>
       <c r="S4">
-        <v>0.02426885634651345</v>
+        <v>0.03217886523358175</v>
       </c>
       <c r="T4">
-        <v>0.02655538012184151</v>
+        <v>0.0353445273215908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H5">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I5">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J5">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>22.120274072058</v>
+        <v>21.306779484859</v>
       </c>
       <c r="R5">
-        <v>132.721644432348</v>
+        <v>127.840676909154</v>
       </c>
       <c r="S5">
-        <v>0.03291972323893202</v>
+        <v>0.03561062555157302</v>
       </c>
       <c r="T5">
-        <v>0.02401420024725776</v>
+        <v>0.02607592941537289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H6">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I6">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J6">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>18.408500022126</v>
+        <v>19.74708757107467</v>
       </c>
       <c r="R6">
-        <v>165.676500199134</v>
+        <v>177.723788139672</v>
       </c>
       <c r="S6">
-        <v>0.02739580549491272</v>
+        <v>0.03300386816916057</v>
       </c>
       <c r="T6">
-        <v>0.02997693909733648</v>
+        <v>0.03625069161872479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>8.54391</v>
       </c>
       <c r="I7">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J7">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N7">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O7">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P7">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q7">
-        <v>116.5312476276167</v>
+        <v>86.76697550573336</v>
       </c>
       <c r="R7">
-        <v>1048.78122864855</v>
+        <v>780.9027795516001</v>
       </c>
       <c r="S7">
-        <v>0.1734235483743122</v>
+        <v>0.1450161098805601</v>
       </c>
       <c r="T7">
-        <v>0.1897628871918411</v>
+        <v>0.1592823681176703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>8.54391</v>
       </c>
       <c r="I8">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J8">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>104.214408</v>
       </c>
       <c r="O8">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P8">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q8">
-        <v>98.93316918392001</v>
+        <v>98.93316918392</v>
       </c>
       <c r="R8">
-        <v>890.3985226552801</v>
+        <v>890.39852265528</v>
       </c>
       <c r="S8">
-        <v>0.1472338244126501</v>
+        <v>0.1653498148297146</v>
       </c>
       <c r="T8">
-        <v>0.161105662262989</v>
+        <v>0.1816164431357831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>8.54391</v>
       </c>
       <c r="I9">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J9">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N9">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O9">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P9">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q9">
-        <v>53.56102277389001</v>
+        <v>67.46947254213335</v>
       </c>
       <c r="R9">
-        <v>482.0492049650101</v>
+        <v>607.2252528792001</v>
       </c>
       <c r="S9">
-        <v>0.07971031644394769</v>
+        <v>0.1127636452316692</v>
       </c>
       <c r="T9">
-        <v>0.08722033385414976</v>
+        <v>0.1238570008868295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>8.54391</v>
       </c>
       <c r="I10">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J10">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N10">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O10">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P10">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q10">
-        <v>72.65336367463</v>
+        <v>74.66484928600501</v>
       </c>
       <c r="R10">
-        <v>435.92018204778</v>
+        <v>447.98909571603</v>
       </c>
       <c r="S10">
-        <v>0.1081238241784487</v>
+        <v>0.1247894826939001</v>
       </c>
       <c r="T10">
-        <v>0.07887390627421305</v>
+        <v>0.09137726990486127</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>8.54391</v>
       </c>
       <c r="I11">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J11">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N11">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O11">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P11">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q11">
-        <v>60.46215532661</v>
+        <v>69.19925737155999</v>
       </c>
       <c r="R11">
-        <v>544.1593979394901</v>
+        <v>622.79331634404</v>
       </c>
       <c r="S11">
-        <v>0.08998068528886635</v>
+        <v>0.1156546837337233</v>
       </c>
       <c r="T11">
-        <v>0.09845833966596938</v>
+        <v>0.1270324512509706</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H12">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I12">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J12">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N12">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O12">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P12">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q12">
-        <v>1.243313128443333</v>
+        <v>11.24954217832</v>
       </c>
       <c r="R12">
-        <v>11.18981815599</v>
+        <v>67.49725306992001</v>
       </c>
       <c r="S12">
-        <v>0.001850317222759317</v>
+        <v>0.01880167926942956</v>
       </c>
       <c r="T12">
-        <v>0.002024647412090466</v>
+        <v>0.0137675554396002</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H13">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I13">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J13">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>104.214408</v>
       </c>
       <c r="O13">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P13">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q13">
-        <v>1.055553000496</v>
+        <v>12.826917765456</v>
       </c>
       <c r="R13">
-        <v>9.499977004464</v>
+        <v>76.961506592736</v>
       </c>
       <c r="S13">
-        <v>0.001570889787674304</v>
+        <v>0.02143799187723634</v>
       </c>
       <c r="T13">
-        <v>0.00171889333578766</v>
+        <v>0.01569799896349923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H14">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I14">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J14">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N14">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O14">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P14">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q14">
-        <v>0.571461510482</v>
+        <v>8.747575591840002</v>
       </c>
       <c r="R14">
-        <v>5.143153594338</v>
+        <v>52.48545355104001</v>
       </c>
       <c r="S14">
-        <v>0.0008504575804751434</v>
+        <v>0.01462007147098211</v>
       </c>
       <c r="T14">
-        <v>0.0009305846144770468</v>
+        <v>0.01070556739231997</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H15">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I15">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J15">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N15">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O15">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P15">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q15">
-        <v>0.775164453494</v>
+        <v>9.680473087659001</v>
       </c>
       <c r="R15">
-        <v>4.650986720964</v>
+        <v>38.721892350636</v>
       </c>
       <c r="S15">
-        <v>0.001153611351765062</v>
+        <v>0.0161792495450415</v>
       </c>
       <c r="T15">
-        <v>0.0008415336243177554</v>
+        <v>0.007898185117420574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H16">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I16">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J16">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N16">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O16">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P16">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q16">
-        <v>0.645092136418</v>
+        <v>8.971846258008</v>
       </c>
       <c r="R16">
-        <v>5.805829227762</v>
+        <v>53.831077548048</v>
       </c>
       <c r="S16">
-        <v>0.0009600357809904925</v>
+        <v>0.01499490140343557</v>
       </c>
       <c r="T16">
-        <v>0.001050486876297906</v>
+        <v>0.0109800371245989</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H17">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I17">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J17">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N17">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O17">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P17">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q17">
-        <v>16.08753733088666</v>
+        <v>7.980269465626668</v>
       </c>
       <c r="R17">
-        <v>96.52522398531998</v>
+        <v>71.82242519064</v>
       </c>
       <c r="S17">
-        <v>0.02394171404945455</v>
+        <v>0.01333765095485351</v>
       </c>
       <c r="T17">
-        <v>0.01746494377468643</v>
+        <v>0.01464976981499325</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H18">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I18">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J18">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>104.214408</v>
       </c>
       <c r="O18">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P18">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q18">
-        <v>13.658062407392</v>
+        <v>9.099237867568</v>
       </c>
       <c r="R18">
-        <v>81.948374444352</v>
+        <v>81.89314080811199</v>
       </c>
       <c r="S18">
-        <v>0.02032613307442511</v>
+        <v>0.01520781461773326</v>
       </c>
       <c r="T18">
-        <v>0.01482745849225095</v>
+        <v>0.01670391467680514</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H19">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I19">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J19">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N19">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O19">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P19">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q19">
-        <v>7.394282399764</v>
+        <v>6.205409010186668</v>
       </c>
       <c r="R19">
-        <v>44.365694398584</v>
+        <v>55.84868109168001</v>
       </c>
       <c r="S19">
-        <v>0.01100428183474538</v>
+        <v>0.01037127627913671</v>
       </c>
       <c r="T19">
-        <v>0.008027376950858277</v>
+        <v>0.01139157192607168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H20">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I20">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J20">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N20">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O20">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P20">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q20">
-        <v>10.030045366588</v>
+        <v>6.867193577277001</v>
       </c>
       <c r="R20">
-        <v>40.12018146635199</v>
+        <v>41.20316146366201</v>
       </c>
       <c r="S20">
-        <v>0.01492686376608217</v>
+        <v>0.01147733561725538</v>
       </c>
       <c r="T20">
-        <v>0.00725920836657804</v>
+        <v>0.008404294751819559</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H21">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I21">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J21">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N21">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O21">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P21">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q21">
-        <v>8.347007354035998</v>
+        <v>6.364503515624</v>
       </c>
       <c r="R21">
-        <v>50.082044124216</v>
+        <v>57.280531640616</v>
       </c>
       <c r="S21">
-        <v>0.01242214138365016</v>
+        <v>0.01063717544350678</v>
       </c>
       <c r="T21">
-        <v>0.009061673712187631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.620104</v>
-      </c>
-      <c r="H22">
-        <v>1.860312</v>
-      </c>
-      <c r="I22">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J22">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>40.91730166666667</v>
-      </c>
-      <c r="N22">
-        <v>122.751905</v>
-      </c>
-      <c r="O22">
-        <v>0.2897771170516137</v>
-      </c>
-      <c r="P22">
-        <v>0.3083463959441224</v>
-      </c>
-      <c r="Q22">
-        <v>25.37298243270667</v>
-      </c>
-      <c r="R22">
-        <v>228.35684189436</v>
-      </c>
-      <c r="S22">
-        <v>0.03776045254728965</v>
-      </c>
-      <c r="T22">
-        <v>0.04131810566797033</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.620104</v>
-      </c>
-      <c r="H23">
-        <v>1.860312</v>
-      </c>
-      <c r="I23">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J23">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>34.738136</v>
-      </c>
-      <c r="N23">
-        <v>104.214408</v>
-      </c>
-      <c r="O23">
-        <v>0.2460161470038337</v>
-      </c>
-      <c r="P23">
-        <v>0.2617811683839067</v>
-      </c>
-      <c r="Q23">
-        <v>21.541257086144</v>
-      </c>
-      <c r="R23">
-        <v>193.871313775296</v>
-      </c>
-      <c r="S23">
-        <v>0.03205802148673687</v>
-      </c>
-      <c r="T23">
-        <v>0.03507841219954161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.620104</v>
-      </c>
-      <c r="H24">
-        <v>1.860312</v>
-      </c>
-      <c r="I24">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J24">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>18.806737</v>
-      </c>
-      <c r="N24">
-        <v>56.420211</v>
-      </c>
-      <c r="O24">
-        <v>0.1331896729995656</v>
-      </c>
-      <c r="P24">
-        <v>0.1417246332776418</v>
-      </c>
-      <c r="Q24">
-        <v>11.662132840648</v>
-      </c>
-      <c r="R24">
-        <v>104.959195565832</v>
-      </c>
-      <c r="S24">
-        <v>0.01735576079388397</v>
-      </c>
-      <c r="T24">
-        <v>0.01899095773631523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.620104</v>
-      </c>
-      <c r="H25">
-        <v>1.860312</v>
-      </c>
-      <c r="I25">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J25">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>25.510579</v>
-      </c>
-      <c r="N25">
-        <v>51.021158</v>
-      </c>
-      <c r="O25">
-        <v>0.1806664109270835</v>
-      </c>
-      <c r="P25">
-        <v>0.1281624931702333</v>
-      </c>
-      <c r="Q25">
-        <v>15.819212080216</v>
-      </c>
-      <c r="R25">
-        <v>94.915272481296</v>
-      </c>
-      <c r="S25">
-        <v>0.02354238839185552</v>
-      </c>
-      <c r="T25">
-        <v>0.01717364465786669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.620104</v>
-      </c>
-      <c r="H26">
-        <v>1.860312</v>
-      </c>
-      <c r="I26">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J26">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>21.229913</v>
-      </c>
-      <c r="N26">
-        <v>63.689739</v>
-      </c>
-      <c r="O26">
-        <v>0.1503506520179033</v>
-      </c>
-      <c r="P26">
-        <v>0.1599853092240957</v>
-      </c>
-      <c r="Q26">
-        <v>13.164753970952</v>
-      </c>
-      <c r="R26">
-        <v>118.482785738568</v>
-      </c>
-      <c r="S26">
-        <v>0.01959198406948359</v>
-      </c>
-      <c r="T26">
-        <v>0.02143786987230423</v>
+        <v>0.01168362946792864</v>
       </c>
     </row>
   </sheetData>
